--- a/Document/8.3.ProjectTestCaseSprint3.xlsx
+++ b/Document/8.3.ProjectTestCaseSprint3.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Khoá luận tốt nghiệp\Doc_TN _Update\Doc_TN\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FX506LH\Downloads\Doc_TN\Doc_TN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF1F259A-4075-4FC9-A0DF-EE5DC0209286}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25263894-5D4D-4737-88A2-2771A72EA7D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="704" activeTab="4" xr2:uid="{CABE3D0B-8E1B-4EA7-B8C0-EDD9BF8ADEA9}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="704" activeTab="5" xr2:uid="{CABE3D0B-8E1B-4EA7-B8C0-EDD9BF8ADEA9}"/>
   </bookViews>
   <sheets>
     <sheet name="Các trường hợp kiểm thử " sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="789" uniqueCount="293">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="761" uniqueCount="290">
   <si>
     <t>Tên dự án</t>
   </si>
@@ -716,9 +716,6 @@
     <t>Người bị huỷ kết bạn không biến mất</t>
   </si>
   <si>
-    <t>13/5/2025</t>
-  </si>
-  <si>
     <t>Input: Start Date
 Status: enable
 Format: dd/mm/yyyy</t>
@@ -891,9 +888,6 @@
     <t xml:space="preserve">Hiển thị đúng đơn vị tiền </t>
   </si>
   <si>
-    <t>13/05/2025</t>
-  </si>
-  <si>
     <t>Hiển thị bài viết quảng cáo cá nhân</t>
   </si>
   <si>
@@ -912,18 +906,12 @@
     <t>Tổng = Like + Comment</t>
   </si>
   <si>
-    <t>Total Interact = 5</t>
-  </si>
-  <si>
     <t>Tính đúng</t>
   </si>
   <si>
     <t>Phân biệt bài đang hiển thị (Active)</t>
   </si>
   <si>
-    <t>Total Actives = 1</t>
-  </si>
-  <si>
     <t>Thống kê đúng</t>
   </si>
   <si>
@@ -960,16 +948,19 @@
     <t>Hiển thị đơn vị "$" và đúng số tiền</t>
   </si>
   <si>
-    <t xml:space="preserve">Hiển thị đúng </t>
-  </si>
-  <si>
     <t>Số lượng test</t>
   </si>
   <si>
-    <t>Không click được unfriend(đã fix)</t>
-  </si>
-  <si>
-    <t>không chọn deleted được ( đã fix)</t>
+    <t>Khang, Đô</t>
+  </si>
+  <si>
+    <t>Đô</t>
+  </si>
+  <si>
+    <t>Đúng số lượng</t>
+  </si>
+  <si>
+    <t>Hiển thị sai</t>
   </si>
 </sst>
 </file>
@@ -1255,7 +1246,7 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1337,9 +1328,6 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1348,6 +1336,15 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1376,20 +1373,17 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1999,7 +1993,7 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2011,31 +2005,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="35"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="37"/>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="36"/>
-      <c r="B2" s="37"/>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="38"/>
+      <c r="A2" s="38"/>
+      <c r="B2" s="39"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="40"/>
     </row>
     <row r="3" spans="1:5" ht="33" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="39" t="s">
+      <c r="B3" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="40"/>
-      <c r="D3" s="40"/>
-      <c r="E3" s="41"/>
+      <c r="C3" s="42"/>
+      <c r="D3" s="42"/>
+      <c r="E3" s="43"/>
     </row>
     <row r="4" spans="1:5" ht="16.8">
       <c r="A4" s="2" t="s">
@@ -2048,7 +2042,7 @@
         <v>3</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>4</v>
@@ -2064,11 +2058,11 @@
       <c r="C5" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="32">
+      <c r="D5" s="31">
         <v>11</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>35</v>
+        <v>286</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="16.8">
@@ -2081,11 +2075,11 @@
       <c r="C6" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="32">
+      <c r="D6" s="31">
         <v>14</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>35</v>
+        <v>286</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="16.8">
@@ -2098,11 +2092,11 @@
       <c r="C7" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="32">
+      <c r="D7" s="31">
         <v>9</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>35</v>
+        <v>286</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="16.8">
@@ -2115,11 +2109,11 @@
       <c r="C8" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="32">
+      <c r="D8" s="31">
         <v>12</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>35</v>
+        <v>286</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="16.8">
@@ -2132,15 +2126,15 @@
       <c r="C9" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="32">
+      <c r="D9" s="31">
         <v>17</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>35</v>
+        <v>286</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="16.8">
-      <c r="D10" s="46">
+      <c r="D10" s="32">
         <f>SUM(D5:D9)</f>
         <v>63</v>
       </c>
@@ -2159,8 +2153,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BE51A5F-E7D2-41BC-A90E-0756ED51D561}">
   <dimension ref="A1:M54"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A49" sqref="A49:M49"/>
+    <sheetView topLeftCell="A42" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="L43" sqref="L43:L48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2179,25 +2173,25 @@
       <c r="A1" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="42" t="s">
+      <c r="B1" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
     </row>
     <row r="2" spans="1:6" ht="16.8">
       <c r="A2" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="43" t="s">
+      <c r="B2" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
     </row>
     <row r="3" spans="1:6" ht="16.8">
       <c r="A3" s="7"/>
@@ -2262,64 +2256,64 @@
       </c>
     </row>
     <row r="39" spans="1:13" ht="16.8">
-      <c r="A39" s="44" t="s">
+      <c r="A39" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="B39" s="44" t="s">
+      <c r="B39" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="C39" s="44" t="s">
+      <c r="C39" s="45" t="s">
         <v>23</v>
       </c>
-      <c r="D39" s="44" t="s">
+      <c r="D39" s="45" t="s">
         <v>24</v>
       </c>
-      <c r="E39" s="44" t="s">
+      <c r="E39" s="45" t="s">
         <v>25</v>
       </c>
-      <c r="F39" s="44" t="s">
+      <c r="F39" s="45" t="s">
         <v>26</v>
       </c>
-      <c r="G39" s="44" t="s">
+      <c r="G39" s="45" t="s">
         <v>27</v>
       </c>
-      <c r="H39" s="44"/>
-      <c r="I39" s="44"/>
-      <c r="J39" s="44" t="s">
+      <c r="H39" s="45"/>
+      <c r="I39" s="45"/>
+      <c r="J39" s="45" t="s">
         <v>27</v>
       </c>
-      <c r="K39" s="44"/>
-      <c r="L39" s="44"/>
-      <c r="M39" s="44" t="s">
+      <c r="K39" s="45"/>
+      <c r="L39" s="45"/>
+      <c r="M39" s="45" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="40" spans="1:13" ht="16.8">
-      <c r="A40" s="44"/>
-      <c r="B40" s="44"/>
-      <c r="C40" s="44"/>
-      <c r="D40" s="44"/>
-      <c r="E40" s="44"/>
-      <c r="F40" s="44"/>
-      <c r="G40" s="44" t="s">
+      <c r="A40" s="45"/>
+      <c r="B40" s="45"/>
+      <c r="C40" s="45"/>
+      <c r="D40" s="45"/>
+      <c r="E40" s="45"/>
+      <c r="F40" s="45"/>
+      <c r="G40" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="H40" s="44"/>
-      <c r="I40" s="44"/>
-      <c r="J40" s="44" t="s">
+      <c r="H40" s="45"/>
+      <c r="I40" s="45"/>
+      <c r="J40" s="45" t="s">
         <v>30</v>
       </c>
-      <c r="K40" s="44"/>
-      <c r="L40" s="44"/>
-      <c r="M40" s="44"/>
+      <c r="K40" s="45"/>
+      <c r="L40" s="45"/>
+      <c r="M40" s="45"/>
     </row>
     <row r="41" spans="1:13" ht="50.4">
-      <c r="A41" s="44"/>
-      <c r="B41" s="44"/>
-      <c r="C41" s="44"/>
-      <c r="D41" s="44"/>
-      <c r="E41" s="44"/>
-      <c r="F41" s="44"/>
+      <c r="A41" s="45"/>
+      <c r="B41" s="45"/>
+      <c r="C41" s="45"/>
+      <c r="D41" s="45"/>
+      <c r="E41" s="45"/>
+      <c r="F41" s="45"/>
       <c r="G41" s="12" t="s">
         <v>31</v>
       </c>
@@ -2338,27 +2332,27 @@
       <c r="L41" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="M41" s="44"/>
+      <c r="M41" s="45"/>
     </row>
     <row r="42" spans="1:13" ht="16.8">
-      <c r="A42" s="45" t="s">
-        <v>217</v>
-      </c>
-      <c r="B42" s="45"/>
-      <c r="C42" s="45"/>
-      <c r="D42" s="45"/>
-      <c r="E42" s="45"/>
-      <c r="F42" s="45"/>
-      <c r="G42" s="45"/>
-      <c r="H42" s="45"/>
-      <c r="I42" s="45"/>
-      <c r="J42" s="45"/>
-      <c r="K42" s="45"/>
-      <c r="L42" s="45"/>
-      <c r="M42" s="45"/>
+      <c r="A42" s="44" t="s">
+        <v>216</v>
+      </c>
+      <c r="B42" s="44"/>
+      <c r="C42" s="44"/>
+      <c r="D42" s="44"/>
+      <c r="E42" s="44"/>
+      <c r="F42" s="44"/>
+      <c r="G42" s="44"/>
+      <c r="H42" s="44"/>
+      <c r="I42" s="44"/>
+      <c r="J42" s="44"/>
+      <c r="K42" s="44"/>
+      <c r="L42" s="44"/>
+      <c r="M42" s="44"/>
     </row>
     <row r="43" spans="1:13" ht="33.6">
-      <c r="A43" s="31" t="s">
+      <c r="A43" s="30" t="s">
         <v>36</v>
       </c>
       <c r="B43" s="26" t="s">
@@ -2378,7 +2372,7 @@
         <v>34</v>
       </c>
       <c r="H43" s="28">
-        <v>45721</v>
+        <v>45752</v>
       </c>
       <c r="I43" s="27" t="s">
         <v>35</v>
@@ -2387,15 +2381,15 @@
         <v>34</v>
       </c>
       <c r="K43" s="28">
-        <v>45721</v>
-      </c>
-      <c r="L43" s="26" t="s">
-        <v>35</v>
+        <v>45752</v>
+      </c>
+      <c r="L43" s="34" t="s">
+        <v>287</v>
       </c>
       <c r="M43" s="26"/>
     </row>
     <row r="44" spans="1:13" ht="50.4">
-      <c r="A44" s="31" t="s">
+      <c r="A44" s="30" t="s">
         <v>37</v>
       </c>
       <c r="B44" s="26" t="s">
@@ -2406,16 +2400,16 @@
         <v>85</v>
       </c>
       <c r="E44" s="27" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F44" s="27" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G44" s="27" t="s">
         <v>34</v>
       </c>
       <c r="H44" s="28">
-        <v>45721</v>
+        <v>45752</v>
       </c>
       <c r="I44" s="27" t="s">
         <v>35</v>
@@ -2424,15 +2418,15 @@
         <v>34</v>
       </c>
       <c r="K44" s="28">
-        <v>45721</v>
-      </c>
-      <c r="L44" s="26" t="s">
-        <v>35</v>
+        <v>45752</v>
+      </c>
+      <c r="L44" s="34" t="s">
+        <v>287</v>
       </c>
       <c r="M44" s="26"/>
     </row>
     <row r="45" spans="1:13" ht="50.4">
-      <c r="A45" s="31" t="s">
+      <c r="A45" s="30" t="s">
         <v>38</v>
       </c>
       <c r="B45" s="26" t="s">
@@ -2443,16 +2437,16 @@
         <v>85</v>
       </c>
       <c r="E45" s="27" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F45" s="27" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="G45" s="27" t="s">
         <v>34</v>
       </c>
       <c r="H45" s="28">
-        <v>45721</v>
+        <v>45752</v>
       </c>
       <c r="I45" s="27" t="s">
         <v>35</v>
@@ -2461,15 +2455,15 @@
         <v>34</v>
       </c>
       <c r="K45" s="28">
-        <v>45721</v>
-      </c>
-      <c r="L45" s="26" t="s">
-        <v>35</v>
+        <v>45752</v>
+      </c>
+      <c r="L45" s="34" t="s">
+        <v>287</v>
       </c>
       <c r="M45" s="26"/>
     </row>
     <row r="46" spans="1:13" ht="33.6">
-      <c r="A46" s="31" t="s">
+      <c r="A46" s="30" t="s">
         <v>39</v>
       </c>
       <c r="B46" s="27" t="s">
@@ -2489,7 +2483,7 @@
         <v>34</v>
       </c>
       <c r="H46" s="28">
-        <v>45721</v>
+        <v>45752</v>
       </c>
       <c r="I46" s="27" t="s">
         <v>35</v>
@@ -2498,15 +2492,15 @@
         <v>34</v>
       </c>
       <c r="K46" s="28">
-        <v>45721</v>
-      </c>
-      <c r="L46" s="26" t="s">
-        <v>35</v>
+        <v>45752</v>
+      </c>
+      <c r="L46" s="34" t="s">
+        <v>287</v>
       </c>
       <c r="M46" s="26"/>
     </row>
     <row r="47" spans="1:13" ht="33.6">
-      <c r="A47" s="31" t="s">
+      <c r="A47" s="30" t="s">
         <v>40</v>
       </c>
       <c r="B47" s="26" t="s">
@@ -2526,7 +2520,7 @@
         <v>34</v>
       </c>
       <c r="H47" s="28">
-        <v>45721</v>
+        <v>45752</v>
       </c>
       <c r="I47" s="27" t="s">
         <v>35</v>
@@ -2535,15 +2529,15 @@
         <v>34</v>
       </c>
       <c r="K47" s="28">
-        <v>45721</v>
-      </c>
-      <c r="L47" s="26" t="s">
-        <v>35</v>
+        <v>45752</v>
+      </c>
+      <c r="L47" s="34" t="s">
+        <v>287</v>
       </c>
       <c r="M47" s="26"/>
     </row>
     <row r="48" spans="1:13" ht="33.6">
-      <c r="A48" s="31" t="s">
+      <c r="A48" s="30" t="s">
         <v>126</v>
       </c>
       <c r="B48" s="27" t="s">
@@ -2563,7 +2557,7 @@
         <v>34</v>
       </c>
       <c r="H48" s="28">
-        <v>45721</v>
+        <v>45752</v>
       </c>
       <c r="I48" s="27" t="s">
         <v>35</v>
@@ -2572,29 +2566,29 @@
         <v>34</v>
       </c>
       <c r="K48" s="28">
-        <v>45721</v>
-      </c>
-      <c r="L48" s="26" t="s">
-        <v>35</v>
+        <v>45752</v>
+      </c>
+      <c r="L48" s="34" t="s">
+        <v>287</v>
       </c>
       <c r="M48" s="26"/>
     </row>
     <row r="49" spans="1:13" ht="16.8">
-      <c r="A49" s="45" t="s">
-        <v>218</v>
-      </c>
-      <c r="B49" s="45"/>
-      <c r="C49" s="45"/>
-      <c r="D49" s="45"/>
-      <c r="E49" s="45"/>
-      <c r="F49" s="45"/>
-      <c r="G49" s="45"/>
-      <c r="H49" s="45"/>
-      <c r="I49" s="45"/>
-      <c r="J49" s="45"/>
-      <c r="K49" s="45"/>
-      <c r="L49" s="45"/>
-      <c r="M49" s="45"/>
+      <c r="A49" s="44" t="s">
+        <v>217</v>
+      </c>
+      <c r="B49" s="44"/>
+      <c r="C49" s="44"/>
+      <c r="D49" s="44"/>
+      <c r="E49" s="44"/>
+      <c r="F49" s="44"/>
+      <c r="G49" s="44"/>
+      <c r="H49" s="44"/>
+      <c r="I49" s="44"/>
+      <c r="J49" s="44"/>
+      <c r="K49" s="44"/>
+      <c r="L49" s="44"/>
+      <c r="M49" s="44"/>
     </row>
     <row r="50" spans="1:13" ht="50.4">
       <c r="A50" s="14" t="s">
@@ -2618,8 +2612,8 @@
       <c r="G50" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="H50" s="18">
-        <v>45721</v>
+      <c r="H50" s="28">
+        <v>45752</v>
       </c>
       <c r="I50" s="19" t="s">
         <v>35</v>
@@ -2627,11 +2621,11 @@
       <c r="J50" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="K50" s="18">
-        <v>45721</v>
-      </c>
-      <c r="L50" s="19" t="s">
-        <v>35</v>
+      <c r="K50" s="28">
+        <v>45752</v>
+      </c>
+      <c r="L50" s="33" t="s">
+        <v>287</v>
       </c>
       <c r="M50" s="17"/>
     </row>
@@ -2657,8 +2651,8 @@
       <c r="G51" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="H51" s="18">
-        <v>45721</v>
+      <c r="H51" s="28">
+        <v>45752</v>
       </c>
       <c r="I51" s="19" t="s">
         <v>35</v>
@@ -2666,11 +2660,11 @@
       <c r="J51" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="K51" s="18">
-        <v>45721</v>
-      </c>
-      <c r="L51" s="19" t="s">
-        <v>35</v>
+      <c r="K51" s="28">
+        <v>45752</v>
+      </c>
+      <c r="L51" s="33" t="s">
+        <v>287</v>
       </c>
       <c r="M51" s="17"/>
     </row>
@@ -2696,8 +2690,8 @@
       <c r="G52" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="H52" s="18">
-        <v>45721</v>
+      <c r="H52" s="28">
+        <v>45752</v>
       </c>
       <c r="I52" s="19" t="s">
         <v>35</v>
@@ -2705,11 +2699,11 @@
       <c r="J52" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="K52" s="18">
-        <v>45721</v>
-      </c>
-      <c r="L52" s="19" t="s">
-        <v>35</v>
+      <c r="K52" s="28">
+        <v>45752</v>
+      </c>
+      <c r="L52" s="33" t="s">
+        <v>287</v>
       </c>
       <c r="M52" s="17"/>
     </row>
@@ -2735,8 +2729,8 @@
       <c r="G53" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="H53" s="18">
-        <v>45721</v>
+      <c r="H53" s="28">
+        <v>45752</v>
       </c>
       <c r="I53" s="19" t="s">
         <v>35</v>
@@ -2744,11 +2738,11 @@
       <c r="J53" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="K53" s="18">
-        <v>45721</v>
-      </c>
-      <c r="L53" s="19" t="s">
-        <v>35</v>
+      <c r="K53" s="28">
+        <v>45752</v>
+      </c>
+      <c r="L53" s="33" t="s">
+        <v>287</v>
       </c>
       <c r="M53" s="17"/>
     </row>
@@ -2774,8 +2768,8 @@
       <c r="G54" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="H54" s="18">
-        <v>45721</v>
+      <c r="H54" s="28">
+        <v>45752</v>
       </c>
       <c r="I54" s="19" t="s">
         <v>35</v>
@@ -2783,23 +2777,16 @@
       <c r="J54" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="K54" s="18">
-        <v>45721</v>
-      </c>
-      <c r="L54" s="19" t="s">
-        <v>35</v>
+      <c r="K54" s="28">
+        <v>45752</v>
+      </c>
+      <c r="L54" s="33" t="s">
+        <v>287</v>
       </c>
       <c r="M54" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A49:M49"/>
-    <mergeCell ref="G39:I39"/>
-    <mergeCell ref="J39:L39"/>
-    <mergeCell ref="M39:M41"/>
-    <mergeCell ref="G40:I40"/>
-    <mergeCell ref="J40:L40"/>
-    <mergeCell ref="A42:M42"/>
     <mergeCell ref="B1:F1"/>
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="A39:A41"/>
@@ -2808,6 +2795,13 @@
     <mergeCell ref="D39:D41"/>
     <mergeCell ref="E39:E41"/>
     <mergeCell ref="F39:F41"/>
+    <mergeCell ref="A49:M49"/>
+    <mergeCell ref="G39:I39"/>
+    <mergeCell ref="J39:L39"/>
+    <mergeCell ref="M39:M41"/>
+    <mergeCell ref="G40:I40"/>
+    <mergeCell ref="J40:L40"/>
+    <mergeCell ref="A42:M42"/>
   </mergeCells>
   <phoneticPr fontId="12" type="noConversion"/>
   <dataValidations count="1">
@@ -2825,8 +2819,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F779AD91-86A5-4BF8-BB46-271A88209A30}">
   <dimension ref="A1:M54"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView topLeftCell="A43" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K58" sqref="K58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2845,25 +2839,25 @@
       <c r="A1" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="42" t="s">
+      <c r="B1" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
     </row>
     <row r="2" spans="1:6" ht="16.8">
       <c r="A2" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="43" t="s">
+      <c r="B2" s="47" t="s">
         <v>46</v>
       </c>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
     </row>
     <row r="3" spans="1:6" ht="16.8">
       <c r="A3" s="7"/>
@@ -3160,64 +3154,64 @@
       <c r="F34" s="22"/>
     </row>
     <row r="36" spans="1:13" ht="16.8">
-      <c r="A36" s="44" t="s">
+      <c r="A36" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="B36" s="44" t="s">
+      <c r="B36" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="C36" s="44" t="s">
+      <c r="C36" s="45" t="s">
         <v>23</v>
       </c>
-      <c r="D36" s="44" t="s">
+      <c r="D36" s="45" t="s">
         <v>24</v>
       </c>
-      <c r="E36" s="44" t="s">
+      <c r="E36" s="45" t="s">
         <v>25</v>
       </c>
-      <c r="F36" s="44" t="s">
+      <c r="F36" s="45" t="s">
         <v>26</v>
       </c>
-      <c r="G36" s="44" t="s">
+      <c r="G36" s="45" t="s">
         <v>27</v>
       </c>
-      <c r="H36" s="44"/>
-      <c r="I36" s="44"/>
-      <c r="J36" s="44" t="s">
+      <c r="H36" s="45"/>
+      <c r="I36" s="45"/>
+      <c r="J36" s="45" t="s">
         <v>27</v>
       </c>
-      <c r="K36" s="44"/>
-      <c r="L36" s="44"/>
-      <c r="M36" s="44" t="s">
+      <c r="K36" s="45"/>
+      <c r="L36" s="45"/>
+      <c r="M36" s="45" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="37" spans="1:13" ht="16.8">
-      <c r="A37" s="44"/>
-      <c r="B37" s="44"/>
-      <c r="C37" s="44"/>
-      <c r="D37" s="44"/>
-      <c r="E37" s="44"/>
-      <c r="F37" s="44"/>
-      <c r="G37" s="44" t="s">
+      <c r="A37" s="45"/>
+      <c r="B37" s="45"/>
+      <c r="C37" s="45"/>
+      <c r="D37" s="45"/>
+      <c r="E37" s="45"/>
+      <c r="F37" s="45"/>
+      <c r="G37" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="H37" s="44"/>
-      <c r="I37" s="44"/>
-      <c r="J37" s="44" t="s">
+      <c r="H37" s="45"/>
+      <c r="I37" s="45"/>
+      <c r="J37" s="45" t="s">
         <v>30</v>
       </c>
-      <c r="K37" s="44"/>
-      <c r="L37" s="44"/>
-      <c r="M37" s="44"/>
+      <c r="K37" s="45"/>
+      <c r="L37" s="45"/>
+      <c r="M37" s="45"/>
     </row>
     <row r="38" spans="1:13" ht="50.4">
-      <c r="A38" s="44"/>
-      <c r="B38" s="44"/>
-      <c r="C38" s="44"/>
-      <c r="D38" s="44"/>
-      <c r="E38" s="44"/>
-      <c r="F38" s="44"/>
+      <c r="A38" s="45"/>
+      <c r="B38" s="45"/>
+      <c r="C38" s="45"/>
+      <c r="D38" s="45"/>
+      <c r="E38" s="45"/>
+      <c r="F38" s="45"/>
       <c r="G38" s="12" t="s">
         <v>31</v>
       </c>
@@ -3236,24 +3230,24 @@
       <c r="L38" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="M38" s="44"/>
+      <c r="M38" s="45"/>
     </row>
     <row r="39" spans="1:13" ht="16.8">
-      <c r="A39" s="45" t="s">
+      <c r="A39" s="44" t="s">
         <v>51</v>
       </c>
-      <c r="B39" s="45"/>
-      <c r="C39" s="45"/>
-      <c r="D39" s="45"/>
-      <c r="E39" s="45"/>
-      <c r="F39" s="45"/>
-      <c r="G39" s="45"/>
-      <c r="H39" s="45"/>
-      <c r="I39" s="45"/>
-      <c r="J39" s="45"/>
-      <c r="K39" s="45"/>
-      <c r="L39" s="45"/>
-      <c r="M39" s="45"/>
+      <c r="B39" s="44"/>
+      <c r="C39" s="44"/>
+      <c r="D39" s="44"/>
+      <c r="E39" s="44"/>
+      <c r="F39" s="44"/>
+      <c r="G39" s="44"/>
+      <c r="H39" s="44"/>
+      <c r="I39" s="44"/>
+      <c r="J39" s="44"/>
+      <c r="K39" s="44"/>
+      <c r="L39" s="44"/>
+      <c r="M39" s="44"/>
     </row>
     <row r="40" spans="1:13" ht="33.6">
       <c r="A40" s="14" t="s">
@@ -3276,7 +3270,7 @@
         <v>34</v>
       </c>
       <c r="H40" s="18">
-        <v>45752</v>
+        <v>45813</v>
       </c>
       <c r="I40" s="19" t="s">
         <v>35</v>
@@ -3285,10 +3279,10 @@
         <v>34</v>
       </c>
       <c r="K40" s="18">
-        <v>45752</v>
+        <v>45813</v>
       </c>
       <c r="L40" s="19" t="s">
-        <v>35</v>
+        <v>287</v>
       </c>
       <c r="M40" s="17"/>
     </row>
@@ -3313,7 +3307,7 @@
         <v>34</v>
       </c>
       <c r="H41" s="18">
-        <v>45752</v>
+        <v>45813</v>
       </c>
       <c r="I41" s="19" t="s">
         <v>35</v>
@@ -3322,10 +3316,10 @@
         <v>34</v>
       </c>
       <c r="K41" s="18">
-        <v>45752</v>
+        <v>45813</v>
       </c>
       <c r="L41" s="19" t="s">
-        <v>35</v>
+        <v>287</v>
       </c>
       <c r="M41" s="17"/>
     </row>
@@ -3350,7 +3344,7 @@
         <v>34</v>
       </c>
       <c r="H42" s="18">
-        <v>45752</v>
+        <v>45813</v>
       </c>
       <c r="I42" s="19" t="s">
         <v>35</v>
@@ -3359,10 +3353,10 @@
         <v>34</v>
       </c>
       <c r="K42" s="18">
-        <v>45752</v>
+        <v>45813</v>
       </c>
       <c r="L42" s="19" t="s">
-        <v>35</v>
+        <v>287</v>
       </c>
       <c r="M42" s="17"/>
     </row>
@@ -3387,7 +3381,7 @@
         <v>34</v>
       </c>
       <c r="H43" s="18">
-        <v>45752</v>
+        <v>45813</v>
       </c>
       <c r="I43" s="19" t="s">
         <v>35</v>
@@ -3396,10 +3390,10 @@
         <v>34</v>
       </c>
       <c r="K43" s="18">
-        <v>45752</v>
+        <v>45813</v>
       </c>
       <c r="L43" s="19" t="s">
-        <v>35</v>
+        <v>287</v>
       </c>
       <c r="M43" s="17"/>
     </row>
@@ -3424,7 +3418,7 @@
         <v>34</v>
       </c>
       <c r="H44" s="18">
-        <v>45752</v>
+        <v>45813</v>
       </c>
       <c r="I44" s="19" t="s">
         <v>35</v>
@@ -3433,10 +3427,10 @@
         <v>34</v>
       </c>
       <c r="K44" s="18">
-        <v>45752</v>
+        <v>45813</v>
       </c>
       <c r="L44" s="19" t="s">
-        <v>35</v>
+        <v>287</v>
       </c>
       <c r="M44" s="17"/>
     </row>
@@ -3461,7 +3455,7 @@
         <v>34</v>
       </c>
       <c r="H45" s="18">
-        <v>45752</v>
+        <v>45813</v>
       </c>
       <c r="I45" s="19" t="s">
         <v>35</v>
@@ -3470,10 +3464,10 @@
         <v>34</v>
       </c>
       <c r="K45" s="18">
-        <v>45752</v>
+        <v>45813</v>
       </c>
       <c r="L45" s="19" t="s">
-        <v>35</v>
+        <v>287</v>
       </c>
       <c r="M45" s="17"/>
     </row>
@@ -3498,7 +3492,7 @@
         <v>34</v>
       </c>
       <c r="H46" s="18">
-        <v>45752</v>
+        <v>45813</v>
       </c>
       <c r="I46" s="19" t="s">
         <v>35</v>
@@ -3507,10 +3501,10 @@
         <v>34</v>
       </c>
       <c r="K46" s="18">
-        <v>45752</v>
+        <v>45813</v>
       </c>
       <c r="L46" s="19" t="s">
-        <v>35</v>
+        <v>287</v>
       </c>
       <c r="M46" s="17"/>
     </row>
@@ -3535,7 +3529,7 @@
         <v>34</v>
       </c>
       <c r="H47" s="18">
-        <v>45752</v>
+        <v>45813</v>
       </c>
       <c r="I47" s="19" t="s">
         <v>35</v>
@@ -3544,10 +3538,10 @@
         <v>34</v>
       </c>
       <c r="K47" s="18">
-        <v>45752</v>
+        <v>45813</v>
       </c>
       <c r="L47" s="19" t="s">
-        <v>35</v>
+        <v>287</v>
       </c>
       <c r="M47" s="17"/>
     </row>
@@ -3572,7 +3566,7 @@
         <v>34</v>
       </c>
       <c r="H48" s="18">
-        <v>45752</v>
+        <v>45813</v>
       </c>
       <c r="I48" s="19" t="s">
         <v>35</v>
@@ -3581,10 +3575,10 @@
         <v>34</v>
       </c>
       <c r="K48" s="18">
-        <v>45752</v>
+        <v>45813</v>
       </c>
       <c r="L48" s="19" t="s">
-        <v>35</v>
+        <v>287</v>
       </c>
       <c r="M48" s="17"/>
     </row>
@@ -3609,7 +3603,7 @@
         <v>34</v>
       </c>
       <c r="H49" s="18">
-        <v>45752</v>
+        <v>45813</v>
       </c>
       <c r="I49" s="19" t="s">
         <v>35</v>
@@ -3618,29 +3612,29 @@
         <v>34</v>
       </c>
       <c r="K49" s="18">
-        <v>45752</v>
+        <v>45813</v>
       </c>
       <c r="L49" s="19" t="s">
-        <v>35</v>
+        <v>287</v>
       </c>
       <c r="M49" s="17"/>
     </row>
     <row r="50" spans="1:13" ht="16.8">
-      <c r="A50" s="45" t="s">
+      <c r="A50" s="44" t="s">
         <v>56</v>
       </c>
-      <c r="B50" s="45"/>
-      <c r="C50" s="45"/>
-      <c r="D50" s="45"/>
-      <c r="E50" s="45"/>
-      <c r="F50" s="45"/>
-      <c r="G50" s="45"/>
-      <c r="H50" s="45"/>
-      <c r="I50" s="45"/>
-      <c r="J50" s="45"/>
-      <c r="K50" s="45"/>
-      <c r="L50" s="45"/>
-      <c r="M50" s="45"/>
+      <c r="B50" s="44"/>
+      <c r="C50" s="44"/>
+      <c r="D50" s="44"/>
+      <c r="E50" s="44"/>
+      <c r="F50" s="44"/>
+      <c r="G50" s="44"/>
+      <c r="H50" s="44"/>
+      <c r="I50" s="44"/>
+      <c r="J50" s="44"/>
+      <c r="K50" s="44"/>
+      <c r="L50" s="44"/>
+      <c r="M50" s="44"/>
     </row>
     <row r="51" spans="1:13" ht="33.6">
       <c r="A51" s="14" t="s">
@@ -3665,7 +3659,7 @@
         <v>34</v>
       </c>
       <c r="H51" s="18">
-        <v>45784</v>
+        <v>45813</v>
       </c>
       <c r="I51" s="19" t="s">
         <v>35</v>
@@ -3674,10 +3668,10 @@
         <v>34</v>
       </c>
       <c r="K51" s="18">
-        <v>45784</v>
+        <v>45813</v>
       </c>
       <c r="L51" s="19" t="s">
-        <v>35</v>
+        <v>287</v>
       </c>
       <c r="M51" s="17"/>
     </row>
@@ -3704,7 +3698,7 @@
         <v>34</v>
       </c>
       <c r="H52" s="18">
-        <v>45784</v>
+        <v>45813</v>
       </c>
       <c r="I52" s="19" t="s">
         <v>35</v>
@@ -3713,10 +3707,10 @@
         <v>34</v>
       </c>
       <c r="K52" s="18">
-        <v>45784</v>
+        <v>45813</v>
       </c>
       <c r="L52" s="19" t="s">
-        <v>35</v>
+        <v>287</v>
       </c>
       <c r="M52" s="17"/>
     </row>
@@ -3743,7 +3737,7 @@
         <v>34</v>
       </c>
       <c r="H53" s="18">
-        <v>45784</v>
+        <v>45813</v>
       </c>
       <c r="I53" s="19" t="s">
         <v>35</v>
@@ -3752,10 +3746,10 @@
         <v>34</v>
       </c>
       <c r="K53" s="18">
-        <v>45784</v>
+        <v>45813</v>
       </c>
       <c r="L53" s="19" t="s">
-        <v>35</v>
+        <v>287</v>
       </c>
       <c r="M53" s="17"/>
     </row>
@@ -3782,7 +3776,7 @@
         <v>34</v>
       </c>
       <c r="H54" s="18">
-        <v>45784</v>
+        <v>45813</v>
       </c>
       <c r="I54" s="19" t="s">
         <v>35</v>
@@ -3791,22 +3785,15 @@
         <v>34</v>
       </c>
       <c r="K54" s="18">
-        <v>45784</v>
+        <v>45813</v>
       </c>
       <c r="L54" s="19" t="s">
-        <v>35</v>
+        <v>287</v>
       </c>
       <c r="M54" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A50:M50"/>
-    <mergeCell ref="G36:I36"/>
-    <mergeCell ref="J36:L36"/>
-    <mergeCell ref="M36:M38"/>
-    <mergeCell ref="G37:I37"/>
-    <mergeCell ref="J37:L37"/>
-    <mergeCell ref="A39:M39"/>
     <mergeCell ref="B1:F1"/>
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="A36:A38"/>
@@ -3815,6 +3802,13 @@
     <mergeCell ref="D36:D38"/>
     <mergeCell ref="E36:E38"/>
     <mergeCell ref="F36:F38"/>
+    <mergeCell ref="A50:M50"/>
+    <mergeCell ref="G36:I36"/>
+    <mergeCell ref="J36:L36"/>
+    <mergeCell ref="M36:M38"/>
+    <mergeCell ref="G37:I37"/>
+    <mergeCell ref="J37:L37"/>
+    <mergeCell ref="A39:M39"/>
   </mergeCells>
   <phoneticPr fontId="12" type="noConversion"/>
   <dataValidations count="1">
@@ -3833,8 +3827,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA83C5F2-D768-4750-8E27-8570BBF7802E}">
   <dimension ref="A1:M47"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView topLeftCell="A46" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K43" sqref="K43:K47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -3853,25 +3847,25 @@
       <c r="A1" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="42" t="s">
+      <c r="B1" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
     </row>
     <row r="2" spans="1:6" ht="16.8">
       <c r="A2" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="43" t="s">
+      <c r="B2" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
     </row>
     <row r="3" spans="1:6" ht="16.8">
       <c r="A3" s="7"/>
@@ -4152,64 +4146,64 @@
       <c r="F32" s="22"/>
     </row>
     <row r="34" spans="1:13" ht="16.8">
-      <c r="A34" s="44" t="s">
+      <c r="A34" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="B34" s="44" t="s">
+      <c r="B34" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="C34" s="44" t="s">
+      <c r="C34" s="45" t="s">
         <v>23</v>
       </c>
-      <c r="D34" s="44" t="s">
+      <c r="D34" s="45" t="s">
         <v>24</v>
       </c>
-      <c r="E34" s="44" t="s">
+      <c r="E34" s="45" t="s">
         <v>25</v>
       </c>
-      <c r="F34" s="44" t="s">
+      <c r="F34" s="45" t="s">
         <v>26</v>
       </c>
-      <c r="G34" s="44" t="s">
+      <c r="G34" s="45" t="s">
         <v>27</v>
       </c>
-      <c r="H34" s="44"/>
-      <c r="I34" s="44"/>
-      <c r="J34" s="44" t="s">
+      <c r="H34" s="45"/>
+      <c r="I34" s="45"/>
+      <c r="J34" s="45" t="s">
         <v>27</v>
       </c>
-      <c r="K34" s="44"/>
-      <c r="L34" s="44"/>
-      <c r="M34" s="44" t="s">
+      <c r="K34" s="45"/>
+      <c r="L34" s="45"/>
+      <c r="M34" s="45" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="35" spans="1:13" ht="16.8">
-      <c r="A35" s="44"/>
-      <c r="B35" s="44"/>
-      <c r="C35" s="44"/>
-      <c r="D35" s="44"/>
-      <c r="E35" s="44"/>
-      <c r="F35" s="44"/>
-      <c r="G35" s="44" t="s">
+      <c r="A35" s="45"/>
+      <c r="B35" s="45"/>
+      <c r="C35" s="45"/>
+      <c r="D35" s="45"/>
+      <c r="E35" s="45"/>
+      <c r="F35" s="45"/>
+      <c r="G35" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="H35" s="44"/>
-      <c r="I35" s="44"/>
-      <c r="J35" s="44" t="s">
+      <c r="H35" s="45"/>
+      <c r="I35" s="45"/>
+      <c r="J35" s="45" t="s">
         <v>30</v>
       </c>
-      <c r="K35" s="44"/>
-      <c r="L35" s="44"/>
-      <c r="M35" s="44"/>
+      <c r="K35" s="45"/>
+      <c r="L35" s="45"/>
+      <c r="M35" s="45"/>
     </row>
     <row r="36" spans="1:13" ht="50.4">
-      <c r="A36" s="44"/>
-      <c r="B36" s="44"/>
-      <c r="C36" s="44"/>
-      <c r="D36" s="44"/>
-      <c r="E36" s="44"/>
-      <c r="F36" s="44"/>
+      <c r="A36" s="45"/>
+      <c r="B36" s="45"/>
+      <c r="C36" s="45"/>
+      <c r="D36" s="45"/>
+      <c r="E36" s="45"/>
+      <c r="F36" s="45"/>
       <c r="G36" s="12" t="s">
         <v>31</v>
       </c>
@@ -4228,24 +4222,24 @@
       <c r="L36" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="M36" s="44"/>
+      <c r="M36" s="45"/>
     </row>
     <row r="37" spans="1:13" ht="16.8">
-      <c r="A37" s="45" t="s">
+      <c r="A37" s="44" t="s">
         <v>61</v>
       </c>
-      <c r="B37" s="45"/>
-      <c r="C37" s="45"/>
-      <c r="D37" s="45"/>
-      <c r="E37" s="45"/>
-      <c r="F37" s="45"/>
-      <c r="G37" s="45"/>
-      <c r="H37" s="45"/>
-      <c r="I37" s="45"/>
-      <c r="J37" s="45"/>
-      <c r="K37" s="45"/>
-      <c r="L37" s="45"/>
-      <c r="M37" s="45"/>
+      <c r="B37" s="44"/>
+      <c r="C37" s="44"/>
+      <c r="D37" s="44"/>
+      <c r="E37" s="44"/>
+      <c r="F37" s="44"/>
+      <c r="G37" s="44"/>
+      <c r="H37" s="44"/>
+      <c r="I37" s="44"/>
+      <c r="J37" s="44"/>
+      <c r="K37" s="44"/>
+      <c r="L37" s="44"/>
+      <c r="M37" s="44"/>
     </row>
     <row r="38" spans="1:13" ht="50.4">
       <c r="A38" s="14" t="s">
@@ -4268,7 +4262,7 @@
         <v>34</v>
       </c>
       <c r="H38" s="18">
-        <v>45874</v>
+        <v>45843</v>
       </c>
       <c r="I38" s="19" t="s">
         <v>35</v>
@@ -4276,11 +4270,11 @@
       <c r="J38" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="K38" s="18" t="s">
-        <v>214</v>
+      <c r="K38" s="18">
+        <v>45874</v>
       </c>
       <c r="L38" s="19" t="s">
-        <v>35</v>
+        <v>287</v>
       </c>
       <c r="M38" s="17"/>
     </row>
@@ -4305,7 +4299,7 @@
         <v>34</v>
       </c>
       <c r="H39" s="18">
-        <v>45874</v>
+        <v>45843</v>
       </c>
       <c r="I39" s="19" t="s">
         <v>35</v>
@@ -4313,11 +4307,11 @@
       <c r="J39" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="K39" s="18" t="s">
-        <v>214</v>
+      <c r="K39" s="18">
+        <v>45874</v>
       </c>
       <c r="L39" s="19" t="s">
-        <v>35</v>
+        <v>287</v>
       </c>
       <c r="M39" s="17"/>
     </row>
@@ -4342,7 +4336,7 @@
         <v>34</v>
       </c>
       <c r="H40" s="18">
-        <v>45874</v>
+        <v>45843</v>
       </c>
       <c r="I40" s="19" t="s">
         <v>35</v>
@@ -4350,11 +4344,11 @@
       <c r="J40" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="K40" s="18" t="s">
-        <v>214</v>
+      <c r="K40" s="18">
+        <v>45874</v>
       </c>
       <c r="L40" s="19" t="s">
-        <v>35</v>
+        <v>287</v>
       </c>
       <c r="M40" s="17"/>
     </row>
@@ -4379,7 +4373,7 @@
         <v>34</v>
       </c>
       <c r="H41" s="18">
-        <v>45874</v>
+        <v>45843</v>
       </c>
       <c r="I41" s="19" t="s">
         <v>35</v>
@@ -4387,30 +4381,30 @@
       <c r="J41" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="K41" s="18" t="s">
-        <v>214</v>
+      <c r="K41" s="18">
+        <v>45874</v>
       </c>
       <c r="L41" s="19" t="s">
-        <v>35</v>
+        <v>287</v>
       </c>
       <c r="M41" s="17"/>
     </row>
     <row r="42" spans="1:13" ht="16.8">
-      <c r="A42" s="45" t="s">
+      <c r="A42" s="44" t="s">
         <v>62</v>
       </c>
-      <c r="B42" s="45"/>
-      <c r="C42" s="45"/>
-      <c r="D42" s="45"/>
-      <c r="E42" s="45"/>
-      <c r="F42" s="45"/>
-      <c r="G42" s="45"/>
-      <c r="H42" s="45"/>
-      <c r="I42" s="45"/>
-      <c r="J42" s="45"/>
-      <c r="K42" s="45"/>
-      <c r="L42" s="45"/>
-      <c r="M42" s="45"/>
+      <c r="B42" s="44"/>
+      <c r="C42" s="44"/>
+      <c r="D42" s="44"/>
+      <c r="E42" s="44"/>
+      <c r="F42" s="44"/>
+      <c r="G42" s="44"/>
+      <c r="H42" s="44"/>
+      <c r="I42" s="44"/>
+      <c r="J42" s="44"/>
+      <c r="K42" s="44"/>
+      <c r="L42" s="44"/>
+      <c r="M42" s="44"/>
     </row>
     <row r="43" spans="1:13" ht="33.6">
       <c r="A43" s="14" t="s">
@@ -4435,7 +4429,7 @@
         <v>34</v>
       </c>
       <c r="H43" s="18">
-        <v>45874</v>
+        <v>45843</v>
       </c>
       <c r="I43" s="19" t="s">
         <v>35</v>
@@ -4443,11 +4437,11 @@
       <c r="J43" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="K43" s="18" t="s">
-        <v>214</v>
+      <c r="K43" s="18">
+        <v>45874</v>
       </c>
       <c r="L43" s="19" t="s">
-        <v>35</v>
+        <v>287</v>
       </c>
       <c r="M43" s="17"/>
     </row>
@@ -4474,7 +4468,7 @@
         <v>34</v>
       </c>
       <c r="H44" s="18">
-        <v>45874</v>
+        <v>45843</v>
       </c>
       <c r="I44" s="19" t="s">
         <v>35</v>
@@ -4482,11 +4476,11 @@
       <c r="J44" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="K44" s="18" t="s">
-        <v>214</v>
+      <c r="K44" s="18">
+        <v>45874</v>
       </c>
       <c r="L44" s="19" t="s">
-        <v>35</v>
+        <v>287</v>
       </c>
       <c r="M44" s="17"/>
     </row>
@@ -4513,7 +4507,7 @@
         <v>34</v>
       </c>
       <c r="H45" s="18">
-        <v>45874</v>
+        <v>45843</v>
       </c>
       <c r="I45" s="19" t="s">
         <v>35</v>
@@ -4521,11 +4515,11 @@
       <c r="J45" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="K45" s="18" t="s">
-        <v>214</v>
+      <c r="K45" s="18">
+        <v>45874</v>
       </c>
       <c r="L45" s="19" t="s">
-        <v>35</v>
+        <v>287</v>
       </c>
       <c r="M45" s="17"/>
     </row>
@@ -4552,7 +4546,7 @@
         <v>34</v>
       </c>
       <c r="H46" s="18">
-        <v>45874</v>
+        <v>45843</v>
       </c>
       <c r="I46" s="19" t="s">
         <v>35</v>
@@ -4560,15 +4554,15 @@
       <c r="J46" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="K46" s="18" t="s">
-        <v>214</v>
+      <c r="K46" s="18">
+        <v>45874</v>
       </c>
       <c r="L46" s="19" t="s">
-        <v>35</v>
+        <v>287</v>
       </c>
       <c r="M46" s="17"/>
     </row>
-    <row r="47" spans="1:13" ht="100.8">
+    <row r="47" spans="1:13" ht="50.4">
       <c r="A47" s="14" t="s">
         <v>70</v>
       </c>
@@ -4591,7 +4585,7 @@
         <v>189</v>
       </c>
       <c r="H47" s="18">
-        <v>45874</v>
+        <v>45843</v>
       </c>
       <c r="I47" s="19" t="s">
         <v>35</v>
@@ -4599,25 +4593,16 @@
       <c r="J47" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="K47" s="18" t="s">
-        <v>214</v>
+      <c r="K47" s="18">
+        <v>45874</v>
       </c>
       <c r="L47" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="M47" s="30" t="s">
-        <v>291</v>
-      </c>
+        <v>287</v>
+      </c>
+      <c r="M47" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A42:M42"/>
-    <mergeCell ref="G34:I34"/>
-    <mergeCell ref="J34:L34"/>
-    <mergeCell ref="M34:M36"/>
-    <mergeCell ref="G35:I35"/>
-    <mergeCell ref="J35:L35"/>
-    <mergeCell ref="A37:M37"/>
     <mergeCell ref="B1:F1"/>
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="A34:A36"/>
@@ -4626,6 +4611,13 @@
     <mergeCell ref="D34:D36"/>
     <mergeCell ref="E34:E36"/>
     <mergeCell ref="F34:F36"/>
+    <mergeCell ref="A42:M42"/>
+    <mergeCell ref="G34:I34"/>
+    <mergeCell ref="J34:L34"/>
+    <mergeCell ref="M34:M36"/>
+    <mergeCell ref="G35:I35"/>
+    <mergeCell ref="J35:L35"/>
+    <mergeCell ref="A37:M37"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" operator="equal" allowBlank="1" showErrorMessage="1" promptTitle="dfdf" sqref="G38:G41 J43:J47 G43:G47 J38:J41" xr:uid="{DE2E5592-330D-4E45-82B0-C2AE93D1BDCA}">
@@ -4642,8 +4634,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{632F7635-8F26-4335-93A6-60D2F1D4777E}">
   <dimension ref="A1:M49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K48" sqref="K48:K49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -4662,25 +4654,25 @@
       <c r="A1" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="42" t="s">
+      <c r="B1" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
     </row>
     <row r="2" spans="1:6" ht="16.8">
       <c r="A2" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="43" t="s">
+      <c r="B2" s="47" t="s">
         <v>72</v>
       </c>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
     </row>
     <row r="3" spans="1:6" ht="16.8">
       <c r="A3" s="7"/>
@@ -4953,64 +4945,64 @@
       <c r="F31" s="22"/>
     </row>
     <row r="33" spans="1:13" ht="16.8">
-      <c r="A33" s="44" t="s">
+      <c r="A33" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="B33" s="44" t="s">
+      <c r="B33" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="C33" s="44" t="s">
+      <c r="C33" s="45" t="s">
         <v>23</v>
       </c>
-      <c r="D33" s="44" t="s">
+      <c r="D33" s="45" t="s">
         <v>24</v>
       </c>
-      <c r="E33" s="44" t="s">
+      <c r="E33" s="45" t="s">
         <v>25</v>
       </c>
-      <c r="F33" s="44" t="s">
+      <c r="F33" s="45" t="s">
         <v>26</v>
       </c>
-      <c r="G33" s="44" t="s">
+      <c r="G33" s="45" t="s">
         <v>27</v>
       </c>
-      <c r="H33" s="44"/>
-      <c r="I33" s="44"/>
-      <c r="J33" s="44" t="s">
+      <c r="H33" s="45"/>
+      <c r="I33" s="45"/>
+      <c r="J33" s="45" t="s">
         <v>27</v>
       </c>
-      <c r="K33" s="44"/>
-      <c r="L33" s="44"/>
-      <c r="M33" s="44" t="s">
+      <c r="K33" s="45"/>
+      <c r="L33" s="45"/>
+      <c r="M33" s="45" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="34" spans="1:13" ht="16.8">
-      <c r="A34" s="44"/>
-      <c r="B34" s="44"/>
-      <c r="C34" s="44"/>
-      <c r="D34" s="44"/>
-      <c r="E34" s="44"/>
-      <c r="F34" s="44"/>
-      <c r="G34" s="44" t="s">
+      <c r="A34" s="45"/>
+      <c r="B34" s="45"/>
+      <c r="C34" s="45"/>
+      <c r="D34" s="45"/>
+      <c r="E34" s="45"/>
+      <c r="F34" s="45"/>
+      <c r="G34" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="H34" s="44"/>
-      <c r="I34" s="44"/>
-      <c r="J34" s="44" t="s">
+      <c r="H34" s="45"/>
+      <c r="I34" s="45"/>
+      <c r="J34" s="45" t="s">
         <v>30</v>
       </c>
-      <c r="K34" s="44"/>
-      <c r="L34" s="44"/>
-      <c r="M34" s="44"/>
+      <c r="K34" s="45"/>
+      <c r="L34" s="45"/>
+      <c r="M34" s="45"/>
     </row>
     <row r="35" spans="1:13" ht="50.4">
-      <c r="A35" s="44"/>
-      <c r="B35" s="44"/>
-      <c r="C35" s="44"/>
-      <c r="D35" s="44"/>
-      <c r="E35" s="44"/>
-      <c r="F35" s="44"/>
+      <c r="A35" s="45"/>
+      <c r="B35" s="45"/>
+      <c r="C35" s="45"/>
+      <c r="D35" s="45"/>
+      <c r="E35" s="45"/>
+      <c r="F35" s="45"/>
       <c r="G35" s="12" t="s">
         <v>31</v>
       </c>
@@ -5029,24 +5021,24 @@
       <c r="L35" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="M35" s="44"/>
+      <c r="M35" s="45"/>
     </row>
     <row r="36" spans="1:13" ht="16.8">
-      <c r="A36" s="45" t="s">
+      <c r="A36" s="44" t="s">
         <v>73</v>
       </c>
-      <c r="B36" s="45"/>
-      <c r="C36" s="45"/>
-      <c r="D36" s="45"/>
-      <c r="E36" s="45"/>
-      <c r="F36" s="45"/>
-      <c r="G36" s="45"/>
-      <c r="H36" s="45"/>
-      <c r="I36" s="45"/>
-      <c r="J36" s="45"/>
-      <c r="K36" s="45"/>
-      <c r="L36" s="45"/>
-      <c r="M36" s="45"/>
+      <c r="B36" s="44"/>
+      <c r="C36" s="44"/>
+      <c r="D36" s="44"/>
+      <c r="E36" s="44"/>
+      <c r="F36" s="44"/>
+      <c r="G36" s="44"/>
+      <c r="H36" s="44"/>
+      <c r="I36" s="44"/>
+      <c r="J36" s="44"/>
+      <c r="K36" s="44"/>
+      <c r="L36" s="44"/>
+      <c r="M36" s="44"/>
     </row>
     <row r="37" spans="1:13" ht="33.6">
       <c r="A37" s="14" t="s">
@@ -5068,7 +5060,7 @@
       <c r="G37" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="H37" s="29">
+      <c r="H37" s="28">
         <v>45905</v>
       </c>
       <c r="I37" s="19" t="s">
@@ -5078,10 +5070,10 @@
         <v>34</v>
       </c>
       <c r="K37" s="18">
-        <v>45996</v>
+        <v>45935</v>
       </c>
       <c r="L37" s="19" t="s">
-        <v>35</v>
+        <v>287</v>
       </c>
       <c r="M37" s="17"/>
     </row>
@@ -5105,7 +5097,7 @@
       <c r="G38" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="H38" s="29">
+      <c r="H38" s="28">
         <v>45905</v>
       </c>
       <c r="I38" s="19" t="s">
@@ -5115,10 +5107,10 @@
         <v>34</v>
       </c>
       <c r="K38" s="18">
-        <v>45996</v>
+        <v>45935</v>
       </c>
       <c r="L38" s="19" t="s">
-        <v>35</v>
+        <v>287</v>
       </c>
       <c r="M38" s="17"/>
     </row>
@@ -5142,7 +5134,7 @@
       <c r="G39" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="H39" s="29">
+      <c r="H39" s="28">
         <v>45905</v>
       </c>
       <c r="I39" s="19" t="s">
@@ -5152,10 +5144,10 @@
         <v>34</v>
       </c>
       <c r="K39" s="18">
-        <v>45996</v>
+        <v>45935</v>
       </c>
       <c r="L39" s="19" t="s">
-        <v>35</v>
+        <v>287</v>
       </c>
       <c r="M39" s="17"/>
     </row>
@@ -5179,7 +5171,7 @@
       <c r="G40" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="H40" s="29">
+      <c r="H40" s="28">
         <v>45905</v>
       </c>
       <c r="I40" s="19" t="s">
@@ -5189,10 +5181,10 @@
         <v>34</v>
       </c>
       <c r="K40" s="18">
-        <v>45996</v>
+        <v>45935</v>
       </c>
       <c r="L40" s="19" t="s">
-        <v>35</v>
+        <v>287</v>
       </c>
       <c r="M40" s="17"/>
     </row>
@@ -5216,7 +5208,7 @@
       <c r="G41" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="H41" s="29">
+      <c r="H41" s="28">
         <v>45905</v>
       </c>
       <c r="I41" s="19" t="s">
@@ -5226,10 +5218,10 @@
         <v>34</v>
       </c>
       <c r="K41" s="18">
-        <v>45996</v>
+        <v>45935</v>
       </c>
       <c r="L41" s="19" t="s">
-        <v>35</v>
+        <v>287</v>
       </c>
       <c r="M41" s="17"/>
     </row>
@@ -5253,7 +5245,7 @@
       <c r="G42" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="H42" s="29">
+      <c r="H42" s="28">
         <v>45905</v>
       </c>
       <c r="I42" s="19" t="s">
@@ -5263,10 +5255,10 @@
         <v>34</v>
       </c>
       <c r="K42" s="18">
-        <v>45996</v>
+        <v>45935</v>
       </c>
       <c r="L42" s="19" t="s">
-        <v>35</v>
+        <v>287</v>
       </c>
       <c r="M42" s="17"/>
     </row>
@@ -5290,7 +5282,7 @@
       <c r="G43" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="H43" s="29">
+      <c r="H43" s="28">
         <v>45905</v>
       </c>
       <c r="I43" s="19" t="s">
@@ -5300,10 +5292,10 @@
         <v>34</v>
       </c>
       <c r="K43" s="18">
-        <v>45996</v>
+        <v>45935</v>
       </c>
       <c r="L43" s="19" t="s">
-        <v>35</v>
+        <v>287</v>
       </c>
       <c r="M43" s="17"/>
     </row>
@@ -5327,7 +5319,7 @@
       <c r="G44" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="H44" s="29">
+      <c r="H44" s="28">
         <v>45905</v>
       </c>
       <c r="I44" s="19" t="s">
@@ -5337,10 +5329,10 @@
         <v>34</v>
       </c>
       <c r="K44" s="18">
-        <v>45996</v>
+        <v>45935</v>
       </c>
       <c r="L44" s="19" t="s">
-        <v>35</v>
+        <v>287</v>
       </c>
       <c r="M44" s="17"/>
     </row>
@@ -5364,7 +5356,7 @@
       <c r="G45" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="H45" s="29">
+      <c r="H45" s="28">
         <v>45905</v>
       </c>
       <c r="I45" s="19" t="s">
@@ -5374,10 +5366,10 @@
         <v>34</v>
       </c>
       <c r="K45" s="18">
-        <v>45996</v>
+        <v>45935</v>
       </c>
       <c r="L45" s="19" t="s">
-        <v>35</v>
+        <v>287</v>
       </c>
       <c r="M45" s="17"/>
     </row>
@@ -5401,7 +5393,7 @@
       <c r="G46" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="H46" s="29">
+      <c r="H46" s="28">
         <v>45905</v>
       </c>
       <c r="I46" s="19" t="s">
@@ -5411,29 +5403,29 @@
         <v>34</v>
       </c>
       <c r="K46" s="18">
-        <v>45996</v>
+        <v>45935</v>
       </c>
       <c r="L46" s="19" t="s">
-        <v>35</v>
+        <v>287</v>
       </c>
       <c r="M46" s="17"/>
     </row>
     <row r="47" spans="1:13" ht="16.8">
-      <c r="A47" s="45" t="s">
+      <c r="A47" s="44" t="s">
         <v>74</v>
       </c>
-      <c r="B47" s="45"/>
-      <c r="C47" s="45"/>
-      <c r="D47" s="45"/>
-      <c r="E47" s="45"/>
-      <c r="F47" s="45"/>
-      <c r="G47" s="45"/>
-      <c r="H47" s="45"/>
-      <c r="I47" s="45"/>
-      <c r="J47" s="45"/>
-      <c r="K47" s="45"/>
-      <c r="L47" s="45"/>
-      <c r="M47" s="45"/>
+      <c r="B47" s="44"/>
+      <c r="C47" s="44"/>
+      <c r="D47" s="44"/>
+      <c r="E47" s="44"/>
+      <c r="F47" s="44"/>
+      <c r="G47" s="44"/>
+      <c r="H47" s="44"/>
+      <c r="I47" s="44"/>
+      <c r="J47" s="44"/>
+      <c r="K47" s="44"/>
+      <c r="L47" s="44"/>
+      <c r="M47" s="44"/>
     </row>
     <row r="48" spans="1:13" ht="33.6">
       <c r="A48" s="14" t="s">
@@ -5457,7 +5449,7 @@
       <c r="G48" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="H48" s="29">
+      <c r="H48" s="28">
         <v>45905</v>
       </c>
       <c r="I48" s="19" t="s">
@@ -5467,14 +5459,14 @@
         <v>34</v>
       </c>
       <c r="K48" s="18">
-        <v>45996</v>
+        <v>45935</v>
       </c>
       <c r="L48" s="19" t="s">
-        <v>35</v>
+        <v>287</v>
       </c>
       <c r="M48" s="17"/>
     </row>
-    <row r="49" spans="1:13" ht="84">
+    <row r="49" spans="1:13" ht="50.4">
       <c r="A49" s="14" t="s">
         <v>83</v>
       </c>
@@ -5496,7 +5488,7 @@
       <c r="G49" s="17" t="s">
         <v>189</v>
       </c>
-      <c r="H49" s="29">
+      <c r="H49" s="28">
         <v>45905</v>
       </c>
       <c r="I49" s="19" t="s">
@@ -5506,24 +5498,15 @@
         <v>34</v>
       </c>
       <c r="K49" s="18">
-        <v>45996</v>
+        <v>45935</v>
       </c>
       <c r="L49" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="M49" s="30" t="s">
-        <v>292</v>
-      </c>
+        <v>287</v>
+      </c>
+      <c r="M49" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A47:M47"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="J33:L33"/>
-    <mergeCell ref="M33:M35"/>
-    <mergeCell ref="G34:I34"/>
-    <mergeCell ref="J34:L34"/>
-    <mergeCell ref="A36:M36"/>
     <mergeCell ref="B1:F1"/>
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="A33:A35"/>
@@ -5532,6 +5515,13 @@
     <mergeCell ref="D33:D35"/>
     <mergeCell ref="E33:E35"/>
     <mergeCell ref="F33:F35"/>
+    <mergeCell ref="A47:M47"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="J33:L33"/>
+    <mergeCell ref="M33:M35"/>
+    <mergeCell ref="G34:I34"/>
+    <mergeCell ref="J34:L34"/>
+    <mergeCell ref="A36:M36"/>
   </mergeCells>
   <phoneticPr fontId="12" type="noConversion"/>
   <dataValidations count="1">
@@ -5550,8 +5540,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6C34087-A7F7-4118-9CCF-F690CDE8A7D9}">
   <dimension ref="A1:M59"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F62" sqref="F62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -5570,25 +5560,25 @@
       <c r="A1" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="42" t="s">
+      <c r="B1" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
     </row>
     <row r="2" spans="1:6" ht="16.8">
       <c r="A2" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="43" t="s">
+      <c r="B2" s="47" t="s">
         <v>75</v>
       </c>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
     </row>
     <row r="3" spans="1:6" ht="16.8">
       <c r="A3" s="7"/>
@@ -5901,64 +5891,64 @@
       <c r="F36" s="22"/>
     </row>
     <row r="38" spans="1:13" ht="16.8">
-      <c r="A38" s="44" t="s">
+      <c r="A38" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="B38" s="44" t="s">
+      <c r="B38" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="C38" s="44" t="s">
+      <c r="C38" s="45" t="s">
         <v>23</v>
       </c>
-      <c r="D38" s="44" t="s">
+      <c r="D38" s="45" t="s">
         <v>24</v>
       </c>
-      <c r="E38" s="44" t="s">
+      <c r="E38" s="45" t="s">
         <v>25</v>
       </c>
-      <c r="F38" s="44" t="s">
+      <c r="F38" s="45" t="s">
         <v>26</v>
       </c>
-      <c r="G38" s="44" t="s">
+      <c r="G38" s="45" t="s">
         <v>27</v>
       </c>
-      <c r="H38" s="44"/>
-      <c r="I38" s="44"/>
-      <c r="J38" s="44" t="s">
+      <c r="H38" s="45"/>
+      <c r="I38" s="45"/>
+      <c r="J38" s="45" t="s">
         <v>27</v>
       </c>
-      <c r="K38" s="44"/>
-      <c r="L38" s="44"/>
-      <c r="M38" s="44" t="s">
+      <c r="K38" s="45"/>
+      <c r="L38" s="45"/>
+      <c r="M38" s="45" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="39" spans="1:13" ht="16.8">
-      <c r="A39" s="44"/>
-      <c r="B39" s="44"/>
-      <c r="C39" s="44"/>
-      <c r="D39" s="44"/>
-      <c r="E39" s="44"/>
-      <c r="F39" s="44"/>
-      <c r="G39" s="44" t="s">
+      <c r="A39" s="45"/>
+      <c r="B39" s="45"/>
+      <c r="C39" s="45"/>
+      <c r="D39" s="45"/>
+      <c r="E39" s="45"/>
+      <c r="F39" s="45"/>
+      <c r="G39" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="H39" s="44"/>
-      <c r="I39" s="44"/>
-      <c r="J39" s="44" t="s">
+      <c r="H39" s="45"/>
+      <c r="I39" s="45"/>
+      <c r="J39" s="45" t="s">
         <v>30</v>
       </c>
-      <c r="K39" s="44"/>
-      <c r="L39" s="44"/>
-      <c r="M39" s="44"/>
+      <c r="K39" s="45"/>
+      <c r="L39" s="45"/>
+      <c r="M39" s="45"/>
     </row>
     <row r="40" spans="1:13" ht="50.4">
-      <c r="A40" s="44"/>
-      <c r="B40" s="44"/>
-      <c r="C40" s="44"/>
-      <c r="D40" s="44"/>
-      <c r="E40" s="44"/>
-      <c r="F40" s="44"/>
+      <c r="A40" s="45"/>
+      <c r="B40" s="45"/>
+      <c r="C40" s="45"/>
+      <c r="D40" s="45"/>
+      <c r="E40" s="45"/>
+      <c r="F40" s="45"/>
       <c r="G40" s="12" t="s">
         <v>31</v>
       </c>
@@ -5977,47 +5967,47 @@
       <c r="L40" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="M40" s="44"/>
+      <c r="M40" s="45"/>
     </row>
     <row r="41" spans="1:13" ht="16.8">
-      <c r="A41" s="45" t="s">
+      <c r="A41" s="44" t="s">
         <v>76</v>
       </c>
-      <c r="B41" s="45"/>
-      <c r="C41" s="45"/>
-      <c r="D41" s="45"/>
-      <c r="E41" s="45"/>
-      <c r="F41" s="45"/>
-      <c r="G41" s="45"/>
-      <c r="H41" s="45"/>
-      <c r="I41" s="45"/>
-      <c r="J41" s="45"/>
-      <c r="K41" s="45"/>
-      <c r="L41" s="45"/>
-      <c r="M41" s="45"/>
+      <c r="B41" s="44"/>
+      <c r="C41" s="44"/>
+      <c r="D41" s="44"/>
+      <c r="E41" s="44"/>
+      <c r="F41" s="44"/>
+      <c r="G41" s="44"/>
+      <c r="H41" s="44"/>
+      <c r="I41" s="44"/>
+      <c r="J41" s="44"/>
+      <c r="K41" s="44"/>
+      <c r="L41" s="44"/>
+      <c r="M41" s="44"/>
     </row>
     <row r="42" spans="1:13" ht="33.6">
       <c r="A42" s="14" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B42" s="15" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C42" s="7"/>
       <c r="D42" s="7" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F42" s="16" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="G42" s="17" t="s">
         <v>34</v>
       </c>
       <c r="H42" s="18">
-        <v>45935</v>
+        <v>45966</v>
       </c>
       <c r="I42" s="19" t="s">
         <v>35</v>
@@ -6025,36 +6015,36 @@
       <c r="J42" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="K42" s="18" t="s">
-        <v>266</v>
+      <c r="K42" s="18">
+        <v>45966</v>
       </c>
       <c r="L42" s="19" t="s">
-        <v>35</v>
+        <v>287</v>
       </c>
       <c r="M42" s="17"/>
     </row>
     <row r="43" spans="1:13" ht="33.6">
       <c r="A43" s="14" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B43" s="15" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C43" s="7"/>
       <c r="D43" s="7" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F43" s="16" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G43" s="17" t="s">
         <v>34</v>
       </c>
       <c r="H43" s="18">
-        <v>45935</v>
+        <v>45966</v>
       </c>
       <c r="I43" s="19" t="s">
         <v>35</v>
@@ -6062,36 +6052,36 @@
       <c r="J43" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="K43" s="18" t="s">
-        <v>266</v>
+      <c r="K43" s="18">
+        <v>45966</v>
       </c>
       <c r="L43" s="19" t="s">
-        <v>35</v>
+        <v>287</v>
       </c>
       <c r="M43" s="17"/>
     </row>
     <row r="44" spans="1:13" ht="33.6">
       <c r="A44" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B44" s="15" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C44" s="7"/>
       <c r="D44" s="7" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="F44" s="16" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="G44" s="17" t="s">
         <v>34</v>
       </c>
       <c r="H44" s="18">
-        <v>45935</v>
+        <v>45966</v>
       </c>
       <c r="I44" s="19" t="s">
         <v>35</v>
@@ -6099,36 +6089,36 @@
       <c r="J44" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="K44" s="18" t="s">
-        <v>266</v>
+      <c r="K44" s="18">
+        <v>45966</v>
       </c>
       <c r="L44" s="19" t="s">
-        <v>35</v>
+        <v>287</v>
       </c>
       <c r="M44" s="17"/>
     </row>
     <row r="45" spans="1:13" ht="33.6">
       <c r="A45" s="14" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B45" s="15" t="s">
         <v>125</v>
       </c>
       <c r="C45" s="7"/>
       <c r="D45" s="7" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E45" s="16" t="s">
+        <v>251</v>
+      </c>
+      <c r="F45" s="16" t="s">
         <v>252</v>
       </c>
-      <c r="F45" s="16" t="s">
-        <v>253</v>
-      </c>
       <c r="G45" s="17" t="s">
         <v>34</v>
       </c>
       <c r="H45" s="18">
-        <v>45935</v>
+        <v>45966</v>
       </c>
       <c r="I45" s="19" t="s">
         <v>35</v>
@@ -6136,36 +6126,36 @@
       <c r="J45" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="K45" s="18" t="s">
-        <v>266</v>
+      <c r="K45" s="18">
+        <v>45966</v>
       </c>
       <c r="L45" s="19" t="s">
-        <v>35</v>
+        <v>287</v>
       </c>
       <c r="M45" s="17"/>
     </row>
     <row r="46" spans="1:13" ht="33.6">
       <c r="A46" s="14" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B46" s="15" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C46" s="7"/>
       <c r="D46" s="7" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E46" s="16" t="s">
+        <v>253</v>
+      </c>
+      <c r="F46" s="16" t="s">
         <v>254</v>
       </c>
-      <c r="F46" s="16" t="s">
-        <v>255</v>
-      </c>
       <c r="G46" s="17" t="s">
         <v>34</v>
       </c>
       <c r="H46" s="18">
-        <v>45935</v>
+        <v>45966</v>
       </c>
       <c r="I46" s="19" t="s">
         <v>35</v>
@@ -6173,36 +6163,36 @@
       <c r="J46" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="K46" s="18" t="s">
-        <v>266</v>
+      <c r="K46" s="18">
+        <v>45966</v>
       </c>
       <c r="L46" s="19" t="s">
-        <v>35</v>
+        <v>287</v>
       </c>
       <c r="M46" s="17"/>
     </row>
     <row r="47" spans="1:13" ht="33.6">
       <c r="A47" s="14" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B47" s="15" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C47" s="7"/>
       <c r="D47" s="7" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E47" s="16" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F47" s="16" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="G47" s="17" t="s">
         <v>34</v>
       </c>
       <c r="H47" s="18">
-        <v>45935</v>
+        <v>45966</v>
       </c>
       <c r="I47" s="19" t="s">
         <v>35</v>
@@ -6210,36 +6200,36 @@
       <c r="J47" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="K47" s="18" t="s">
-        <v>266</v>
+      <c r="K47" s="18">
+        <v>45966</v>
       </c>
       <c r="L47" s="19" t="s">
-        <v>35</v>
+        <v>287</v>
       </c>
       <c r="M47" s="17"/>
     </row>
     <row r="48" spans="1:13" ht="33.6">
       <c r="A48" s="14" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B48" s="15" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C48" s="7"/>
       <c r="D48" s="7" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E48" s="16" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F48" s="16" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="G48" s="17" t="s">
         <v>34</v>
       </c>
       <c r="H48" s="18">
-        <v>45935</v>
+        <v>45966</v>
       </c>
       <c r="I48" s="19" t="s">
         <v>35</v>
@@ -6247,36 +6237,36 @@
       <c r="J48" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="K48" s="18" t="s">
-        <v>266</v>
+      <c r="K48" s="18">
+        <v>45966</v>
       </c>
       <c r="L48" s="19" t="s">
-        <v>35</v>
+        <v>287</v>
       </c>
       <c r="M48" s="17"/>
     </row>
     <row r="49" spans="1:13" ht="50.4">
       <c r="A49" s="14" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B49" s="15" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C49" s="7"/>
       <c r="D49" s="7" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E49" s="16" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F49" s="16" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="G49" s="17" t="s">
         <v>34</v>
       </c>
       <c r="H49" s="18">
-        <v>45935</v>
+        <v>45966</v>
       </c>
       <c r="I49" s="19" t="s">
         <v>35</v>
@@ -6284,36 +6274,36 @@
       <c r="J49" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="K49" s="18" t="s">
-        <v>266</v>
+      <c r="K49" s="18">
+        <v>45966</v>
       </c>
       <c r="L49" s="19" t="s">
-        <v>35</v>
+        <v>287</v>
       </c>
       <c r="M49" s="17"/>
     </row>
     <row r="50" spans="1:13" ht="33.6">
       <c r="A50" s="14" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B50" s="15" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C50" s="7"/>
       <c r="D50" s="7" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E50" s="16" t="s">
+        <v>259</v>
+      </c>
+      <c r="F50" s="16" t="s">
         <v>260</v>
       </c>
-      <c r="F50" s="16" t="s">
-        <v>261</v>
-      </c>
       <c r="G50" s="17" t="s">
         <v>34</v>
       </c>
       <c r="H50" s="18">
-        <v>45935</v>
+        <v>45966</v>
       </c>
       <c r="I50" s="19" t="s">
         <v>35</v>
@@ -6321,36 +6311,36 @@
       <c r="J50" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="K50" s="18" t="s">
-        <v>266</v>
+      <c r="K50" s="18">
+        <v>45966</v>
       </c>
       <c r="L50" s="19" t="s">
-        <v>35</v>
+        <v>287</v>
       </c>
       <c r="M50" s="17"/>
     </row>
     <row r="51" spans="1:13" ht="33.6">
       <c r="A51" s="14" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B51" s="15" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C51" s="7"/>
       <c r="D51" s="7" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E51" s="16" t="s">
+        <v>263</v>
+      </c>
+      <c r="F51" s="16" t="s">
         <v>264</v>
       </c>
-      <c r="F51" s="16" t="s">
-        <v>265</v>
-      </c>
       <c r="G51" s="17" t="s">
         <v>34</v>
       </c>
       <c r="H51" s="18">
-        <v>45935</v>
+        <v>45966</v>
       </c>
       <c r="I51" s="19" t="s">
         <v>35</v>
@@ -6358,34 +6348,34 @@
       <c r="J51" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="K51" s="18" t="s">
-        <v>266</v>
+      <c r="K51" s="18">
+        <v>45966</v>
       </c>
       <c r="L51" s="19" t="s">
-        <v>35</v>
+        <v>287</v>
       </c>
       <c r="M51" s="17"/>
     </row>
     <row r="52" spans="1:13" ht="33.6">
       <c r="A52" s="14" t="s">
+        <v>246</v>
+      </c>
+      <c r="B52" s="15" t="s">
         <v>247</v>
-      </c>
-      <c r="B52" s="15" t="s">
-        <v>248</v>
       </c>
       <c r="C52" s="7"/>
       <c r="D52" s="7"/>
       <c r="E52" s="16" t="s">
+        <v>261</v>
+      </c>
+      <c r="F52" s="16" t="s">
         <v>262</v>
       </c>
-      <c r="F52" s="16" t="s">
-        <v>263</v>
-      </c>
       <c r="G52" s="17" t="s">
         <v>34</v>
       </c>
       <c r="H52" s="18">
-        <v>45935</v>
+        <v>45966</v>
       </c>
       <c r="I52" s="19" t="s">
         <v>35</v>
@@ -6393,55 +6383,55 @@
       <c r="J52" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="K52" s="18" t="s">
-        <v>266</v>
+      <c r="K52" s="18">
+        <v>45966</v>
       </c>
       <c r="L52" s="19" t="s">
-        <v>35</v>
+        <v>287</v>
       </c>
       <c r="M52" s="17"/>
     </row>
     <row r="53" spans="1:13" ht="16.8">
-      <c r="A53" s="45" t="s">
+      <c r="A53" s="44" t="s">
         <v>77</v>
       </c>
-      <c r="B53" s="45"/>
-      <c r="C53" s="45"/>
-      <c r="D53" s="45"/>
-      <c r="E53" s="45"/>
-      <c r="F53" s="45"/>
-      <c r="G53" s="45"/>
-      <c r="H53" s="45"/>
-      <c r="I53" s="45"/>
-      <c r="J53" s="45"/>
-      <c r="K53" s="45"/>
-      <c r="L53" s="45"/>
-      <c r="M53" s="45"/>
+      <c r="B53" s="44"/>
+      <c r="C53" s="44"/>
+      <c r="D53" s="44"/>
+      <c r="E53" s="44"/>
+      <c r="F53" s="44"/>
+      <c r="G53" s="44"/>
+      <c r="H53" s="44"/>
+      <c r="I53" s="44"/>
+      <c r="J53" s="44"/>
+      <c r="K53" s="44"/>
+      <c r="L53" s="44"/>
+      <c r="M53" s="44"/>
     </row>
     <row r="54" spans="1:13" ht="33.6">
       <c r="A54" s="14" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B54" s="15" t="s">
+        <v>265</v>
+      </c>
+      <c r="C54" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="D54" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="E54" s="16" t="s">
         <v>267</v>
       </c>
-      <c r="C54" s="7" t="s">
+      <c r="F54" s="16" t="s">
         <v>268</v>
       </c>
-      <c r="D54" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="E54" s="16" t="s">
-        <v>269</v>
-      </c>
-      <c r="F54" s="16" t="s">
-        <v>270</v>
-      </c>
       <c r="G54" s="17" t="s">
         <v>34</v>
       </c>
       <c r="H54" s="18">
-        <v>45935</v>
+        <v>45966</v>
       </c>
       <c r="I54" s="19" t="s">
         <v>35</v>
@@ -6449,38 +6439,38 @@
       <c r="J54" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="K54" s="18" t="s">
-        <v>266</v>
+      <c r="K54" s="18">
+        <v>45966</v>
       </c>
       <c r="L54" s="19" t="s">
-        <v>35</v>
+        <v>287</v>
       </c>
       <c r="M54" s="17"/>
     </row>
     <row r="55" spans="1:13" ht="33.6">
       <c r="A55" s="14" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B55" s="15" t="s">
+        <v>269</v>
+      </c>
+      <c r="C55" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="D55" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="E55" s="16" t="s">
+        <v>288</v>
+      </c>
+      <c r="F55" s="16" t="s">
         <v>271</v>
       </c>
-      <c r="C55" s="7" t="s">
-        <v>272</v>
-      </c>
-      <c r="D55" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="E55" s="16" t="s">
-        <v>273</v>
-      </c>
-      <c r="F55" s="16" t="s">
-        <v>274</v>
-      </c>
       <c r="G55" s="17" t="s">
         <v>34</v>
       </c>
       <c r="H55" s="18">
-        <v>45935</v>
+        <v>45966</v>
       </c>
       <c r="I55" s="19" t="s">
         <v>35</v>
@@ -6488,38 +6478,38 @@
       <c r="J55" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="K55" s="18" t="s">
-        <v>266</v>
+      <c r="K55" s="18">
+        <v>45966</v>
       </c>
       <c r="L55" s="19" t="s">
-        <v>35</v>
+        <v>287</v>
       </c>
       <c r="M55" s="17"/>
     </row>
     <row r="56" spans="1:13" ht="33.6">
       <c r="A56" s="14" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B56" s="15" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="C56" s="7" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="D56" s="7" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E56" s="16" t="s">
-        <v>276</v>
+        <v>288</v>
       </c>
       <c r="F56" s="16" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="G56" s="17" t="s">
         <v>34</v>
       </c>
       <c r="H56" s="18">
-        <v>45935</v>
+        <v>45966</v>
       </c>
       <c r="I56" s="19" t="s">
         <v>35</v>
@@ -6527,38 +6517,38 @@
       <c r="J56" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="K56" s="18" t="s">
-        <v>266</v>
+      <c r="K56" s="18">
+        <v>45966</v>
       </c>
       <c r="L56" s="19" t="s">
-        <v>35</v>
+        <v>287</v>
       </c>
       <c r="M56" s="17"/>
     </row>
     <row r="57" spans="1:13" ht="33.6">
       <c r="A57" s="14" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B57" s="15" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="C57" s="7" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="D57" s="7" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E57" s="16" t="s">
+        <v>277</v>
+      </c>
+      <c r="F57" s="16" t="s">
         <v>281</v>
       </c>
-      <c r="F57" s="16" t="s">
-        <v>285</v>
-      </c>
       <c r="G57" s="17" t="s">
         <v>34</v>
       </c>
       <c r="H57" s="18">
-        <v>45935</v>
+        <v>45966</v>
       </c>
       <c r="I57" s="19" t="s">
         <v>35</v>
@@ -6566,38 +6556,38 @@
       <c r="J57" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="K57" s="18" t="s">
-        <v>266</v>
+      <c r="K57" s="18">
+        <v>45966</v>
       </c>
       <c r="L57" s="19" t="s">
-        <v>35</v>
+        <v>287</v>
       </c>
       <c r="M57" s="17"/>
     </row>
     <row r="58" spans="1:13" ht="33.6">
       <c r="A58" s="14" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B58" s="15" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="C58" s="7" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="D58" s="7" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E58" s="16" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="F58" s="16" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="G58" s="17" t="s">
         <v>34</v>
       </c>
       <c r="H58" s="18">
-        <v>45935</v>
+        <v>45966</v>
       </c>
       <c r="I58" s="19" t="s">
         <v>35</v>
@@ -6605,38 +6595,38 @@
       <c r="J58" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="K58" s="18" t="s">
-        <v>266</v>
+      <c r="K58" s="18">
+        <v>45966</v>
       </c>
       <c r="L58" s="19" t="s">
-        <v>35</v>
+        <v>287</v>
       </c>
       <c r="M58" s="17"/>
     </row>
     <row r="59" spans="1:13" ht="33.6">
       <c r="A59" s="14" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B59" s="15" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="C59" s="7" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="D59" s="7" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E59" s="16" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="F59" s="16" t="s">
         <v>289</v>
       </c>
       <c r="G59" s="17" t="s">
-        <v>34</v>
+        <v>189</v>
       </c>
       <c r="H59" s="18">
-        <v>45935</v>
+        <v>45966</v>
       </c>
       <c r="I59" s="19" t="s">
         <v>35</v>
@@ -6644,23 +6634,16 @@
       <c r="J59" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="K59" s="18" t="s">
-        <v>266</v>
+      <c r="K59" s="18">
+        <v>45966</v>
       </c>
       <c r="L59" s="19" t="s">
-        <v>35</v>
+        <v>287</v>
       </c>
       <c r="M59" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A53:M53"/>
-    <mergeCell ref="G38:I38"/>
-    <mergeCell ref="J38:L38"/>
-    <mergeCell ref="M38:M40"/>
-    <mergeCell ref="G39:I39"/>
-    <mergeCell ref="J39:L39"/>
-    <mergeCell ref="A41:M41"/>
     <mergeCell ref="B1:F1"/>
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="A38:A40"/>
@@ -6669,6 +6652,13 @@
     <mergeCell ref="D38:D40"/>
     <mergeCell ref="E38:E40"/>
     <mergeCell ref="F38:F40"/>
+    <mergeCell ref="A53:M53"/>
+    <mergeCell ref="G38:I38"/>
+    <mergeCell ref="J38:L38"/>
+    <mergeCell ref="M38:M40"/>
+    <mergeCell ref="G39:I39"/>
+    <mergeCell ref="J39:L39"/>
+    <mergeCell ref="A41:M41"/>
   </mergeCells>
   <phoneticPr fontId="12" type="noConversion"/>
   <dataValidations count="1">
